--- a/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_ex06_end.xlsx
+++ b/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_ex06_end.xlsx
@@ -376,7 +376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Skadi"]   "Skull," "Flamelung," "Yellow Smog"... I took them all out.
+    <t xml:space="preserve">[name="Skadi"]   'Skull,' 'Flamelung,' 'Yellow Smog'... I took them all out.
 </t>
   </si>
   <si>
@@ -384,7 +384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Skadi"]   You need this "stone," and I need the information you have.
+    <t xml:space="preserve">[name="Skadi"]   You need this 'stone,' and I need the information you have.
 </t>
   </si>
   <si>
@@ -412,7 +412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]   (Ægirian) "Abyssal Hunters are bound by blood."
+    <t xml:space="preserve">[name="Kal'tsit"]   (Ægirian) 'Abyssal Hunters are bound by blood.'
 </t>
   </si>
   <si>
